--- a/data/trans_bre/P2C_R1-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R1-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.8541923791707873</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.1956266388988437</v>
+        <v>-0.1956266388988492</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-1</v>
@@ -649,7 +649,7 @@
         <v>1.429870309797297</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.006077552467591043</v>
+        <v>-0.006077552467591214</v>
       </c>
     </row>
     <row r="5">
@@ -660,24 +660,24 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.185164525939357</v>
+        <v>-3.688800153690552</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.6587942977526565</v>
+        <v>-0.3762671992265522</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.8700803536122037</v>
+        <v>-1.189099381812022</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-21.93684808804973</v>
+        <v>-20.42526393706076</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.4114378345520686</v>
+        <v>-0.3649456755916194</v>
       </c>
       <c r="I5" s="6" t="inlineStr"/>
       <c r="J5" s="6" t="n">
-        <v>-0.4703728943246734</v>
+        <v>-0.4712799806570558</v>
       </c>
     </row>
     <row r="6">
@@ -691,21 +691,21 @@
         <v>0</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.795386376094274</v>
+        <v>7.516894725663742</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.333770440441344</v>
+        <v>2.868766221913988</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20.49985347438065</v>
+        <v>18.86434017822786</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>10.62404418724942</v>
+        <v>9.858411577128843</v>
       </c>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>1.044302965062959</v>
+        <v>1.015386608658017</v>
       </c>
     </row>
     <row r="7">
@@ -729,7 +729,7 @@
         <v>-0.07744783407743985</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-7.16675600254095</v>
+        <v>-7.166756002540972</v>
       </c>
       <c r="G7" s="6" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>-0.09670316606915612</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.3209086845914397</v>
+        <v>-0.3209086845914405</v>
       </c>
     </row>
     <row r="8">
@@ -754,22 +754,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3380048275827919</v>
+        <v>0.487175830889747</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.60895496918859</v>
+        <v>-0.6053670616831365</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.628801911630749</v>
+        <v>-1.620772148668616</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-20.26305333260591</v>
+        <v>-19.56622684259917</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="n">
-        <v>-0.6230359438871853</v>
+        <v>-0.6096690387674187</v>
       </c>
     </row>
     <row r="9">
@@ -780,22 +780,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.559576250489381</v>
+        <v>3.637883939833225</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.342967794453507</v>
+        <v>1.492656136157448</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.260329020109986</v>
+        <v>1.430263336843981</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.213255382588654</v>
+        <v>2.684753454821964</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="n">
-        <v>0.2404931623182287</v>
+        <v>0.2318924443460656</v>
       </c>
     </row>
     <row r="10">
@@ -852,16 +852,16 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.652294146506206</v>
+        <v>-1.266890160335839</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-11.42724006327001</v>
+        <v>-9.998624557090793</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.2919161482287091</v>
+        <v>-0.2861015674968108</v>
       </c>
     </row>
     <row r="12">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.136761239349929</v>
+        <v>3.355719193996832</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.699214296368707</v>
+        <v>3.383473284386526</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.779165817454978</v>
+        <v>1.930566778961641</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19.46174411388921</v>
+        <v>20.02692416428312</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>1.012891580233995</v>
+        <v>0.9946484876281869</v>
       </c>
     </row>
     <row r="13">
@@ -911,7 +911,7 @@
         <v>1.119941887086241</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-5.665715025735654</v>
+        <v>-5.665715025735651</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-1</v>
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.2471751570128757</v>
+        <v>-0.2471751570128756</v>
       </c>
     </row>
     <row r="14">
@@ -938,22 +938,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.71013858856272</v>
+        <v>-2.137817562192875</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3770295561342183</v>
+        <v>0.6290791733724634</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3444859514792178</v>
+        <v>0.3456361410169172</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-23.24051986910315</v>
+        <v>-21.95604984099971</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>-0.6202546391908016</v>
+        <v>-0.607922134840516</v>
       </c>
     </row>
     <row r="15">
@@ -967,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.846466253260802</v>
+        <v>3.639279918070824</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.42126817788032</v>
+        <v>3.044909876900667</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.446522416270422</v>
+        <v>5.570345863023776</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>0.4454622312988707</v>
+        <v>0.3922198179397373</v>
       </c>
     </row>
     <row r="16">
@@ -1003,7 +1003,7 @@
         <v>-3.377037426871456</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8.70692898609706</v>
+        <v>8.706928986097065</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.4788502781311094</v>
@@ -1015,7 +1015,7 @@
         <v>-1</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.624089808111871</v>
+        <v>0.6240898081118714</v>
       </c>
     </row>
     <row r="17">
@@ -1026,22 +1026,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.989938655298097</v>
+        <v>-6.307475003379586</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.781141309040096</v>
+        <v>-7.847801704637014</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.539988028186725</v>
+        <v>-8.648825108023788</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.805690002665754</v>
+        <v>-5.516691544862291</v>
       </c>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="inlineStr"/>
       <c r="I17" s="6" t="inlineStr"/>
       <c r="J17" s="6" t="n">
-        <v>-0.3194117911850651</v>
+        <v>-0.2831416296222647</v>
       </c>
     </row>
     <row r="18">
@@ -1052,22 +1052,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.770088329168453</v>
+        <v>2.397181033283883</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.7561814448810928</v>
+        <v>-0.7653194814532212</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21.25654828835959</v>
+        <v>21.40336047160446</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>2.985754708709295</v>
+        <v>3.102722841250136</v>
       </c>
     </row>
     <row r="19">
@@ -1119,19 +1119,19 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-3.305732332782007</v>
+        <v>-3.513956910279547</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-3.796250800683909</v>
+        <v>-3.630450203965871</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-8.063755666004081</v>
+        <v>-7.857776242074266</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>-0.2879088297713871</v>
+        <v>-0.2732528214132966</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1142,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.318447137679813</v>
+        <v>4.297221099159121</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.458728999733173</v>
+        <v>1.432214882306233</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13.57373278509234</v>
+        <v>13.62003430296812</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>0.8797509190334047</v>
+        <v>0.9167457601858434</v>
       </c>
     </row>
     <row r="22">
@@ -1193,7 +1193,7 @@
         <v>0.08946861127349158</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.7335537679598334</v>
+        <v>0.7335537679598338</v>
       </c>
     </row>
     <row r="23">
@@ -1204,24 +1204,24 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.9213038939854947</v>
+        <v>-0.7251293499049042</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.936142785052539</v>
+        <v>-1.744034780268734</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.130066625344123</v>
+        <v>-1.293006870310476</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.901717306211269</v>
+        <v>-3.43826793587266</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>-0.8540038476757226</v>
+        <v>-0.7793940583864786</v>
       </c>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>-0.2146795515364912</v>
+        <v>-0.2236860816864091</v>
       </c>
     </row>
     <row r="24">
@@ -1232,24 +1232,24 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4512752759269591</v>
+        <v>0.451539146774978</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.519046366864594</v>
+        <v>1.678791663426927</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.160514647342731</v>
+        <v>1.128425962305994</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19.5568661413528</v>
+        <v>19.07201668380734</v>
       </c>
       <c r="G24" s="6" t="inlineStr"/>
       <c r="H24" s="6" t="n">
-        <v>3.709024236314384</v>
+        <v>3.853522446935886</v>
       </c>
       <c r="I24" s="6" t="inlineStr"/>
       <c r="J24" s="6" t="n">
-        <v>3.666264072204319</v>
+        <v>3.911907922503872</v>
       </c>
     </row>
     <row r="25">
@@ -1273,7 +1273,7 @@
         <v>0.5455583912377245</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4.813396456616829</v>
+        <v>4.813396456616828</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06926042799844527</v>
@@ -1285,7 +1285,7 @@
         <v>0.6343006869975816</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>1.359606640286726</v>
+        <v>1.359606640286725</v>
       </c>
     </row>
     <row r="26">
@@ -1296,26 +1296,24 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-1.554674870529154</v>
+        <v>-1.508137043656139</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.795477474195778</v>
+        <v>-0.7842330244289865</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.696662631574446</v>
+        <v>-0.6653137314957785</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1.222350790092412</v>
-      </c>
-      <c r="G26" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>1.599989736225034</v>
+      </c>
+      <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>-0.6531892071558461</v>
+        <v>-0.6951474292035078</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1438117390297604</v>
+        <v>0.1670609602480887</v>
       </c>
     </row>
     <row r="27">
@@ -1326,26 +1324,24 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.264778460279395</v>
+        <v>1.43176771633317</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.7318020350974347</v>
+        <v>0.7633529486007498</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.899672682121217</v>
+        <v>2.077019222426371</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>8.375929629468823</v>
-      </c>
-      <c r="G27" s="6" t="n">
-        <v>6.36672871139644</v>
-      </c>
+        <v>8.785244729383169</v>
+      </c>
+      <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>6.286296874107386</v>
+        <v>7.44117411804646</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>4.321292720684378</v>
+        <v>4.938651081405967</v>
       </c>
     </row>
     <row r="28">
@@ -1392,28 +1388,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.3177399080303786</v>
+        <v>-0.3576163865595522</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.2682037400090545</v>
+        <v>-0.1889479361557511</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.6052494393425474</v>
+        <v>-0.6160693664886299</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.452701505202136</v>
+        <v>-2.058811205630736</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.4458216131284741</v>
+        <v>-0.4462830102525703</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.2564959165795494</v>
+        <v>-0.2530947686910368</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.4772092361088101</v>
+        <v>-0.4932397922633496</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.1357213584861423</v>
+        <v>-0.1166203728620241</v>
       </c>
     </row>
     <row r="30">
@@ -1424,28 +1420,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.7224546632735103</v>
+        <v>0.7335460444323803</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.9629389726239732</v>
+        <v>1.000911581641821</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.6307906269711604</v>
+        <v>0.6008280183293332</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.061794577759207</v>
+        <v>4.967872347147619</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2.285466370977008</v>
+        <v>2.426197308645985</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1.777648069251282</v>
+        <v>2.050893426869929</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1.00296915515465</v>
+        <v>0.9477068567092483</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.4014059449373492</v>
+        <v>0.3906104405583431</v>
       </c>
     </row>
     <row r="31">
